--- a/manual-data/2020-high/loads.xlsx
+++ b/manual-data/2020-high/loads.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv.sharepoint.com/teams/testing-testing/Shared Documents/General/Grid Models/Nordic grid 2022-2023/open-source-model/Manual loads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dnv-nordics-model\manual-data\2020-high\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82E9DE2-1019-4CB0-8BE0-6BC141C7D616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E322EE7-352E-4976-BFFE-C0652483D1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26BDABA5-EB1B-40DA-9841-D61F228A7FC2}"/>
+    <workbookView xWindow="-36750" yWindow="240" windowWidth="19005" windowHeight="15435" xr2:uid="{26BDABA5-EB1B-40DA-9841-D61F228A7FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>p_set</t>
   </si>
@@ -50,7 +50,37 @@
     <t>q_set</t>
   </si>
   <si>
-    <t>m1</t>
+    <t>dkt</t>
+  </si>
+  <si>
+    <t>fie</t>
+  </si>
+  <si>
+    <t>noe</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>noy</t>
+  </si>
+  <si>
+    <t>nof</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>sef</t>
   </si>
 </sst>
 </file>
@@ -402,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6E18BD-7B34-4738-8BFC-51474BCBD4B3}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -424,17 +454,163 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>6591</v>
+        <v>5642</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <f>-376</f>
+        <v>-376</v>
+      </c>
+      <c r="C3">
+        <v>6555</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>-23</f>
+        <v>-23</v>
+      </c>
+      <c r="C4">
+        <v>6737</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5">
+        <v>6365</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>-54</f>
+        <v>-54</v>
+      </c>
+      <c r="C6">
+        <v>6647</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>7008</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>-58</f>
+        <v>-58</v>
+      </c>
+      <c r="C8">
+        <v>6668</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>217</v>
+      </c>
+      <c r="C9">
+        <v>6933</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>184</v>
+      </c>
+      <c r="C10">
+        <v>6802</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>-41</f>
+        <v>-41</v>
+      </c>
+      <c r="C11">
+        <v>6345</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f>-106</f>
+        <v>-106</v>
+      </c>
+      <c r="C12">
+        <v>6349</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -662,15 +838,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="db2da579-6238-4230-a668-c475825d65c8">
@@ -681,14 +848,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F2D80A-24EC-470E-A8DA-E47FB0FBC041}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F2D80A-24EC-470E-A8DA-E47FB0FBC041}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
+    <ds:schemaRef ds:uri="db2da579-6238-4230-a668-c475825d65c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44FA55FF-8A4D-4FAE-AEB4-FF1A2B737335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CE3DAA-C57B-4E1C-B09D-A9BC9B0A2CD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db2da579-6238-4230-a668-c475825d65c8"/>
+    <ds:schemaRef ds:uri="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59CE3DAA-C57B-4E1C-B09D-A9BC9B0A2CD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44FA55FF-8A4D-4FAE-AEB4-FF1A2B737335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>